--- a/Way/WayObjects/Rail Signals/Signal Overview.xlsx
+++ b/Way/WayObjects/Rail Signals/Signal Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Way\WayObjects\Rail Signals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE74A12-8583-40FF-8B8A-89A92589ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8D3AF8-223C-4B05-9261-7D4AA43633AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="241">
   <si>
     <t>eksempel</t>
   </si>
@@ -683,9 +683,6 @@
     <t>Choose Signal</t>
   </si>
   <si>
-    <t>Stationsbestyrer</t>
-  </si>
-  <si>
     <t>Stop = vandret arm/rød, kør = skråt opad/hvid</t>
   </si>
   <si>
@@ -710,9 +707,6 @@
     <t>Stop = skive vises/grøn, kør = skive drejet op/hvid</t>
   </si>
   <si>
-    <t>Stop = vandre arm/gul, kør = skråt opad/grøn</t>
-  </si>
-  <si>
     <t>Banevogter med telegraf</t>
   </si>
   <si>
@@ -737,13 +731,25 @@
     <t>600 meter</t>
   </si>
   <si>
-    <t>2 km</t>
-  </si>
-  <si>
     <t xml:space="preserve">se de Danske Jernbaners Signaler side 30, 49, 52-53, </t>
   </si>
   <si>
     <t>Billeder af signalhuse side 10, 16, 21, 31, 41, 44-47, 59 osv</t>
+  </si>
+  <si>
+    <t>1000 meter</t>
+  </si>
+  <si>
+    <t>Stop = vandret arm/gul, kør = skråt opad/grøn</t>
+  </si>
+  <si>
+    <t>Stop = vandret arm/rød, kør = skråt opad/grøn</t>
+  </si>
+  <si>
+    <t>Trådtræk</t>
+  </si>
+  <si>
+    <t>Trådtræk, DSB1912</t>
   </si>
 </sst>
 </file>
@@ -803,17 +809,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1172,7 +1174,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1271,10 +1273,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C10" t="s">
@@ -1285,17 +1287,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,10 +1447,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D25" t="s">
@@ -1456,10 +1458,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" t="s">
@@ -1467,10 +1469,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D27" t="s">
@@ -1478,10 +1480,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D28" t="s">
@@ -1489,10 +1491,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1500,35 +1502,35 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1690,13 +1692,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1708,15 +1710,15 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D2" t="s">
@@ -1725,15 +1727,15 @@
       <c r="G2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D3" t="s">
@@ -1741,10 +1743,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D4" t="s">
@@ -1752,10 +1754,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
@@ -1763,10 +1765,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -1774,10 +1776,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -1785,10 +1787,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
@@ -1796,10 +1798,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
@@ -1807,10 +1809,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D10" t="s">
@@ -1818,10 +1820,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -1829,10 +1831,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C12" t="s">
@@ -1843,10 +1845,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C13" t="s">
@@ -1857,10 +1859,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C14" t="s">
@@ -1871,10 +1873,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D15" t="s">
@@ -1882,10 +1884,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C16" t="s">
@@ -1896,10 +1898,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
@@ -1910,10 +1912,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C18" t="s">
@@ -1924,10 +1926,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C19" t="s">
@@ -1938,7 +1940,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1953,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517288DF-DC8F-4E11-9F1F-0BC1FADFFFC5}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,12 +1976,12 @@
         <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2011,7 +2013,7 @@
         <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K4" t="s">
         <v>172</v>
@@ -2052,9 +2054,9 @@
         <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>204</v>
       </c>
       <c r="L5" t="s">
@@ -2090,9 +2092,9 @@
         <v>189</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
-      </c>
-      <c r="K6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>204</v>
       </c>
       <c r="L6" t="s">
@@ -2128,9 +2130,9 @@
         <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L7" t="s">
@@ -2169,9 +2171,9 @@
         <v>192</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L8" t="s">
@@ -2207,9 +2209,9 @@
         <v>171</v>
       </c>
       <c r="J9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L9" t="s">
@@ -2239,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
         <v>171</v>
@@ -2248,9 +2250,9 @@
         <v>201</v>
       </c>
       <c r="J10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L10" t="s">
@@ -2280,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
         <v>171</v>
@@ -2289,9 +2291,9 @@
         <v>200</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L11" t="s">
@@ -2321,15 +2323,15 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
         <v>183</v>
       </c>
       <c r="J12" t="s">
-        <v>232</v>
-      </c>
-      <c r="K12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>182</v>
       </c>
       <c r="L12" t="s">
@@ -2362,9 +2364,9 @@
         <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>232</v>
-      </c>
-      <c r="K13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>182</v>
       </c>
       <c r="L13" t="s">
@@ -2397,9 +2399,9 @@
         <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>232</v>
-      </c>
-      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>182</v>
       </c>
       <c r="L14" t="s">
@@ -2438,9 +2440,9 @@
         <v>190</v>
       </c>
       <c r="J15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K15" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L15" t="s">
@@ -2476,9 +2478,9 @@
         <v>193</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L16" t="s">
@@ -2517,9 +2519,9 @@
         <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>205</v>
       </c>
       <c r="L17" t="s">
@@ -2530,10 +2532,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K18" s="7"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K19" s="7"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2557,21 +2559,21 @@
       <c r="G20" t="s">
         <v>198</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K21" s="7"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="7"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2599,9 +2601,9 @@
         <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
-      </c>
-      <c r="K25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>208</v>
       </c>
       <c r="L25" t="s">
@@ -2637,10 +2639,10 @@
         <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="L26" t="s">
         <v>175</v>
@@ -2656,11 +2658,14 @@
       <c r="B27">
         <v>1876</v>
       </c>
+      <c r="C27">
+        <v>1903</v>
+      </c>
       <c r="D27" t="s">
         <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2672,92 +2677,92 @@
         <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="L27" t="s">
         <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28">
-        <v>1862</v>
+        <v>1881</v>
       </c>
       <c r="C28">
-        <v>1876</v>
+        <v>1903</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29">
-        <v>1862</v>
+        <v>1883</v>
       </c>
       <c r="C29">
-        <v>1890</v>
+        <v>1903</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
         <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
-      </c>
-      <c r="K29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" t="s">
         <v>218</v>
-      </c>
-      <c r="L29" t="s">
-        <v>178</v>
-      </c>
-      <c r="M29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2765,51 +2770,54 @@
         <v>211</v>
       </c>
       <c r="B30">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="C30">
-        <v>1890</v>
+        <v>1876</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="L30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B31">
+        <v>1862</v>
+      </c>
+      <c r="C31">
         <v>1890</v>
       </c>
       <c r="D31" t="s">
         <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2821,74 +2829,77 @@
         <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="L31" t="s">
         <v>178</v>
       </c>
       <c r="M31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B32">
-        <v>1903</v>
+        <v>1870</v>
+      </c>
+      <c r="C32">
+        <v>1890</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H32" t="s">
         <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="L32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B33">
-        <v>1881</v>
+        <v>1890</v>
       </c>
       <c r="C33">
         <v>1903</v>
       </c>
       <c r="D33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H33" t="s">
         <v>183</v>
@@ -2896,34 +2907,34 @@
       <c r="J33" t="s">
         <v>236</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>218</v>
+      <c r="K33" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34">
         <v>1903</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E34" t="s">
         <v>181</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H34" t="s">
         <v>183</v>
@@ -2931,27 +2942,94 @@
       <c r="J34" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>218</v>
+      <c r="K34" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="L34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35">
+        <v>1903</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s">
         <v>176</v>
       </c>
-      <c r="M34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K35" s="7"/>
+      <c r="M35" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K36" s="7"/>
+      <c r="A36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36">
+        <v>1903</v>
+      </c>
+      <c r="D36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" t="s">
+        <v>176</v>
+      </c>
+      <c r="M36" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K37" s="7"/>
+      <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K38" s="7"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Way/WayObjects/Rail Signals/Signal Overview.xlsx
+++ b/Way/WayObjects/Rail Signals/Signal Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Way\WayObjects\Rail Signals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8D3AF8-223C-4B05-9261-7D4AA43633AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91334722-00AE-42DD-9450-EEDAA599ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
   <si>
     <t>eksempel</t>
   </si>
@@ -731,12 +731,6 @@
     <t>600 meter</t>
   </si>
   <si>
-    <t xml:space="preserve">se de Danske Jernbaners Signaler side 30, 49, 52-53, </t>
-  </si>
-  <si>
-    <t>Billeder af signalhuse side 10, 16, 21, 31, 41, 44-47, 59 osv</t>
-  </si>
-  <si>
     <t>1000 meter</t>
   </si>
   <si>
@@ -750,6 +744,66 @@
   </si>
   <si>
     <t>Trådtræk, DSB1912</t>
+  </si>
+  <si>
+    <t>se de Danske Jernbaners Signaler side 30, 49, 52-53, 56-57</t>
+  </si>
+  <si>
+    <t>1930-ish</t>
+  </si>
+  <si>
+    <t>Track Circuit Block</t>
+  </si>
+  <si>
+    <t>4000 meter</t>
+  </si>
+  <si>
+    <t>DSB1912</t>
+  </si>
+  <si>
+    <t>DSB1912?, LME</t>
+  </si>
+  <si>
+    <t>Tidslinje for Kmp og FC:</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Slut</t>
+  </si>
+  <si>
+    <t>LME</t>
+  </si>
+  <si>
+    <t>DSB1946</t>
+  </si>
+  <si>
+    <t>Altid sporisolationer</t>
+  </si>
+  <si>
+    <t>FC, type?</t>
+  </si>
+  <si>
+    <t>Grøn over gul frem til 1956, gul over grøn efter 1956</t>
+  </si>
+  <si>
+    <t>Esbjerg-anlæg</t>
+  </si>
+  <si>
+    <t>Sidebaneanlæg, billige</t>
+  </si>
+  <si>
+    <t>Hvornår?</t>
+  </si>
+  <si>
+    <t>Relægruppeanlæ</t>
+  </si>
+  <si>
+    <t>Billeder af signalhuse side 3,9,10, 16, 21, 31, 41, 44-47, 59, 65-6771, 74, 76-77, 84, 87</t>
+  </si>
+  <si>
+    <t>Illustrationer af gamle signaler: 3, 8, 9, 13, 16-19, 21-24, 26, 30, 33-34, 39-39, 43, 48, 50-51, 53, 57, 59-61, 63, 65, 74-76, 78, 83-84, 92, 98, 102</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1206,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517288DF-DC8F-4E11-9F1F-0BC1FADFFFC5}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,91 +2030,61 @@
         <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" t="s">
-        <v>203</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5">
-        <v>1975</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>204</v>
+        <v>228</v>
+      </c>
+      <c r="K5" t="s">
+        <v>172</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>164</v>
+      </c>
+      <c r="M5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2080,7 +2104,7 @@
         <v>168</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>169</v>
@@ -2089,7 +2113,7 @@
         <v>171</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
         <v>229</v>
@@ -2098,7 +2122,7 @@
         <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2112,34 +2136,31 @@
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
         <v>168</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
         <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J7" t="s">
         <v>229</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2159,7 +2180,7 @@
         <v>168</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>174</v>
@@ -2168,7 +2189,7 @@
         <v>171</v>
       </c>
       <c r="I8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
         <v>229</v>
@@ -2177,10 +2198,10 @@
         <v>205</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2194,20 +2215,23 @@
         <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
         <v>168</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
         <v>171</v>
       </c>
+      <c r="I9" t="s">
+        <v>192</v>
+      </c>
       <c r="J9" t="s">
         <v>229</v>
       </c>
@@ -2215,24 +2239,21 @@
         <v>205</v>
       </c>
       <c r="L9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>167</v>
-      </c>
       <c r="B10">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>168</v>
@@ -2241,14 +2262,11 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
         <v>171</v>
       </c>
-      <c r="I10" t="s">
-        <v>201</v>
-      </c>
       <c r="J10" t="s">
         <v>229</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>175</v>
       </c>
       <c r="M10" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2279,7 +2297,7 @@
         <v>168</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>220</v>
@@ -2288,7 +2306,7 @@
         <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
         <v>229</v>
@@ -2297,7 +2315,7 @@
         <v>205</v>
       </c>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M11" t="s">
         <v>202</v>
@@ -2310,14 +2328,14 @@
       <c r="B12">
         <v>1975</v>
       </c>
-      <c r="C12" s="2">
-        <v>2005</v>
+      <c r="C12" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D12" t="s">
         <v>199</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2326,16 +2344,22 @@
         <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>200</v>
       </c>
       <c r="J12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L12" t="s">
         <v>176</v>
+      </c>
+      <c r="M12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2345,11 +2369,11 @@
       <c r="B13">
         <v>1975</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>2005</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
         <v>181</v>
@@ -2358,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
         <v>183</v>
@@ -2384,7 +2408,7 @@
         <v>2005</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
         <v>181</v>
@@ -2393,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
         <v>183</v>
@@ -2405,10 +2429,7 @@
         <v>182</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
-      </c>
-      <c r="M14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2418,35 +2439,35 @@
       <c r="B15">
         <v>1975</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>195</v>
+      <c r="C15">
+        <v>2005</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
         <v>183</v>
       </c>
-      <c r="I15" t="s">
-        <v>190</v>
-      </c>
       <c r="J15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="M15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,22 +2481,22 @@
         <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
         <v>168</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H16" t="s">
         <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
         <v>229</v>
@@ -2484,10 +2505,7 @@
         <v>205</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2507,7 +2525,7 @@
         <v>168</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
         <v>174</v>
@@ -2516,7 +2534,7 @@
         <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
         <v>229</v>
@@ -2525,46 +2543,84 @@
         <v>205</v>
       </c>
       <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18">
+        <v>1975</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" t="s">
+        <v>183</v>
+      </c>
+      <c r="I18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" t="s">
         <v>178</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1975</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>196</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>198</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K22" s="5"/>
@@ -2576,49 +2632,14 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25">
-        <v>1847</v>
-      </c>
-      <c r="C25">
-        <v>1887</v>
-      </c>
-      <c r="D25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25" t="s">
-        <v>232</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L25" t="s">
-        <v>175</v>
-      </c>
-      <c r="M25" t="s">
-        <v>213</v>
-      </c>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>209</v>
       </c>
       <c r="B26">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="C26">
         <v>1887</v>
@@ -2636,13 +2657,13 @@
         <v>169</v>
       </c>
       <c r="H26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J26" t="s">
         <v>232</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
         <v>175</v>
@@ -2656,16 +2677,16 @@
         <v>209</v>
       </c>
       <c r="B27">
-        <v>1876</v>
+        <v>1856</v>
       </c>
       <c r="C27">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="D27" t="s">
         <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2674,7 +2695,7 @@
         <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
         <v>232</v>
@@ -2683,10 +2704,10 @@
         <v>226</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2694,37 +2715,37 @@
         <v>209</v>
       </c>
       <c r="B28">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="C28">
         <v>1903</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
         <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
         <v>176</v>
       </c>
       <c r="M28" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2732,54 +2753,54 @@
         <v>209</v>
       </c>
       <c r="B29">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C29">
         <v>1903</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="H29" t="s">
         <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s">
         <v>176</v>
       </c>
       <c r="M29" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B30">
-        <v>1862</v>
+        <v>1883</v>
       </c>
       <c r="C30">
-        <v>1876</v>
+        <v>1903</v>
       </c>
       <c r="D30" t="s">
         <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2788,19 +2809,19 @@
         <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
         <v>232</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2811,34 +2832,34 @@
         <v>1862</v>
       </c>
       <c r="C31">
-        <v>1890</v>
+        <v>1876</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="J31" t="s">
         <v>232</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2846,75 +2867,75 @@
         <v>211</v>
       </c>
       <c r="B32">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="C32">
         <v>1890</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H32" t="s">
         <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B33">
+        <v>1870</v>
+      </c>
+      <c r="C33">
         <v>1890</v>
       </c>
-      <c r="C33">
-        <v>1903</v>
-      </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
         <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,6 +2943,9 @@
         <v>222</v>
       </c>
       <c r="B34">
+        <v>1890</v>
+      </c>
+      <c r="C34">
         <v>1903</v>
       </c>
       <c r="D34" t="s">
@@ -2931,7 +2955,7 @@
         <v>181</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
         <v>217</v>
@@ -2940,16 +2964,16 @@
         <v>183</v>
       </c>
       <c r="J34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2959,32 +2983,35 @@
       <c r="B35">
         <v>1903</v>
       </c>
+      <c r="C35">
+        <v>1953</v>
+      </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
         <v>181</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H35" t="s">
         <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M35" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2994,8 +3021,11 @@
       <c r="B36">
         <v>1903</v>
       </c>
+      <c r="C36">
+        <v>1953</v>
+      </c>
       <c r="D36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
         <v>181</v>
@@ -3004,32 +3034,271 @@
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
         <v>183</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s">
         <v>176</v>
       </c>
       <c r="M36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37">
+        <v>1903</v>
+      </c>
+      <c r="C37">
+        <v>1953</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K37" s="5"/>
+      <c r="L37" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K38" s="5"/>
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38" t="s">
+        <v>242</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K39" s="5"/>
+      <c r="A39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" t="s">
+        <v>241</v>
+      </c>
+      <c r="J39" t="s">
+        <v>242</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1847</v>
+      </c>
+      <c r="B48">
+        <v>1887</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1856</v>
+      </c>
+      <c r="B49">
+        <v>1887</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1881</v>
+      </c>
+      <c r="B50">
+        <v>1930</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1903</v>
+      </c>
+      <c r="B51">
+        <v>1943</v>
+      </c>
+      <c r="C51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1929</v>
+      </c>
+      <c r="C52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1946</v>
+      </c>
+      <c r="C53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1950</v>
+      </c>
+      <c r="B54">
+        <v>1963</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1956</v>
+      </c>
+      <c r="C55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Way/WayObjects/Rail Signals/Signal Overview.xlsx
+++ b/Way/WayObjects/Rail Signals/Signal Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Way\WayObjects\Rail Signals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91334722-00AE-42DD-9450-EEDAA599ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D6BA4E-A4B2-4CCD-9AAE-3D80153C1621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="281">
   <si>
     <t>eksempel</t>
   </si>
@@ -542,9 +542,6 @@
     <t>Working method</t>
   </si>
   <si>
-    <t>Track Circuit</t>
-  </si>
-  <si>
     <t>Signal group</t>
   </si>
   <si>
@@ -575,9 +572,6 @@
     <t>Arm</t>
   </si>
   <si>
-    <t>Mekanisk</t>
-  </si>
-  <si>
     <t>Absolute Block</t>
   </si>
   <si>
@@ -758,9 +752,6 @@
     <t>4000 meter</t>
   </si>
   <si>
-    <t>DSB1912</t>
-  </si>
-  <si>
     <t>DSB1912?, LME</t>
   </si>
   <si>
@@ -782,35 +773,110 @@
     <t>Altid sporisolationer</t>
   </si>
   <si>
-    <t>FC, type?</t>
-  </si>
-  <si>
     <t>Grøn over gul frem til 1956, gul over grøn efter 1956</t>
   </si>
   <si>
-    <t>Esbjerg-anlæg</t>
-  </si>
-  <si>
-    <t>Sidebaneanlæg, billige</t>
-  </si>
-  <si>
-    <t>Hvornår?</t>
-  </si>
-  <si>
-    <t>Relægruppeanlæ</t>
-  </si>
-  <si>
     <t>Billeder af signalhuse side 3,9,10, 16, 21, 31, 41, 44-47, 59, 65-6771, 74, 76-77, 84, 87</t>
   </si>
   <si>
     <t>Illustrationer af gamle signaler: 3, 8, 9, 13, 16-19, 21-24, 26, 30, 33-34, 39-39, 43, 48, 50-51, 53, 57, 59-61, 63, 65, 74-76, 78, 83-84, 92, 98, 102</t>
+  </si>
+  <si>
+    <t>Ch2</t>
+  </si>
+  <si>
+    <t>Ch3</t>
+  </si>
+  <si>
+    <t>Rundt, rødt skilt</t>
+  </si>
+  <si>
+    <t>Rundt, rødt skilt med hvid kant</t>
+  </si>
+  <si>
+    <t>Centralaflåst</t>
+  </si>
+  <si>
+    <t>Elektromekanisk (DSB1912)</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Togstav</t>
+  </si>
+  <si>
+    <t>Relægruppeanlæg</t>
+  </si>
+  <si>
+    <t>Eksempelstationer for Kmp-inspiration</t>
+  </si>
+  <si>
+    <t>Esbjerg, Glostrup, Kolding, Odense</t>
+  </si>
+  <si>
+    <t>Relæanlæg (DSB54)</t>
+  </si>
+  <si>
+    <t>Relæanlæg (DSB53 og DSB53/54)</t>
+  </si>
+  <si>
+    <t>Tistrup - måske ikke et relevant system, da det hurtigt blev anvendt for fjernstyring</t>
+  </si>
+  <si>
+    <t>FC DSB54F og DSB54E</t>
+  </si>
+  <si>
+    <t>FC Silkeborg</t>
+  </si>
+  <si>
+    <t>Ringsted</t>
+  </si>
+  <si>
+    <t>Fjernstyres af S-tog</t>
+  </si>
+  <si>
+    <t>ETCS</t>
+  </si>
+  <si>
+    <t>Køkkenrullen og toiletrullen</t>
+  </si>
+  <si>
+    <t>Kolding</t>
+  </si>
+  <si>
+    <t>København H, Fredericia</t>
+  </si>
+  <si>
+    <t>Flintholm, Fredericia (gl.)</t>
+  </si>
+  <si>
+    <t>DSB90 - Fuldelektronisk anlæg</t>
+  </si>
+  <si>
+    <t>Fjernstyring?</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Altid</t>
+  </si>
+  <si>
+    <t>Århus Kmp</t>
+  </si>
+  <si>
+    <t>Langå, Hillerød, Hjørring, Struer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +907,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -863,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -873,6 +947,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1206,7 +1281,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,15 +2084,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517288DF-DC8F-4E11-9F1F-0BC1FADFFFC5}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
@@ -2030,116 +2106,116 @@
         <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M5" t="s">
-        <v>203</v>
+      <c r="M5" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B6">
-        <v>1975</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>1847</v>
+      </c>
+      <c r="C6">
+        <v>1887</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="M6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B7">
-        <v>1975</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>195</v>
+        <v>1856</v>
+      </c>
+      <c r="C7">
+        <v>1887</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2148,419 +2224,434 @@
         <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="M7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B8">
-        <v>1975</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>195</v>
+        <v>1876</v>
+      </c>
+      <c r="C8">
+        <v>1903</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B9">
-        <v>1975</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C9">
+        <v>1903</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" t="s">
         <v>195</v>
-      </c>
-      <c r="D9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" t="s">
-        <v>168</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M9" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
       <c r="B10">
-        <v>1963</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>195</v>
+        <v>1883</v>
+      </c>
+      <c r="C10">
+        <v>1903</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>169</v>
       </c>
       <c r="H10" t="s">
-        <v>171</v>
+        <v>181</v>
+      </c>
+      <c r="I10" t="s">
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L10" t="s">
         <v>175</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B11">
-        <v>1975</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>1862</v>
+      </c>
+      <c r="C11">
+        <v>1876</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B12">
-        <v>1975</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>1862</v>
+      </c>
+      <c r="C12">
+        <v>1890</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="J12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="L12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B13">
-        <v>1975</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2005</v>
+        <v>1870</v>
+      </c>
+      <c r="C13">
+        <v>1890</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="L13" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="M13" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B14">
-        <v>1975</v>
+        <v>1890</v>
       </c>
       <c r="C14">
-        <v>2005</v>
+        <v>1903</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I14" t="s">
+        <v>251</v>
       </c>
       <c r="J14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="L14" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="M14" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B15">
-        <v>1975</v>
+        <v>1901</v>
       </c>
       <c r="C15">
-        <v>2005</v>
+        <v>1953</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" t="s">
         <v>181</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" t="s">
-        <v>183</v>
+      <c r="I15" t="s">
+        <v>252</v>
       </c>
       <c r="J15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B16">
-        <v>1975</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>1901</v>
+      </c>
+      <c r="C16">
+        <v>1953</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="M16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B17">
-        <v>1975</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>195</v>
+        <v>1901</v>
+      </c>
+      <c r="C17">
+        <v>1953</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18">
-        <v>1975</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
         <v>168</v>
@@ -2569,276 +2660,489 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>239</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" t="s">
+        <v>251</v>
+      </c>
+      <c r="J19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" t="s">
+        <v>252</v>
+      </c>
+      <c r="J20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1953</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
         <v>174</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1953</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1953</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1953</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1963</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" t="s">
         <v>183</v>
       </c>
-      <c r="I18" t="s">
-        <v>194</v>
-      </c>
-      <c r="J18" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21">
-        <v>1975</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" t="s">
-        <v>198</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="5"/>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B26">
-        <v>1847</v>
-      </c>
-      <c r="C26">
-        <v>1887</v>
+        <v>1953</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>207</v>
+        <v>239</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M26" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B27">
-        <v>1856</v>
-      </c>
-      <c r="C27">
-        <v>1887</v>
+        <v>1953</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
-        <v>210</v>
+        <v>239</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s">
         <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B28">
-        <v>1876</v>
-      </c>
-      <c r="C28">
-        <v>1903</v>
+        <v>1953</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2005</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I28" t="s">
+        <v>198</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
-      </c>
-      <c r="M28" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B29">
-        <v>1881</v>
+        <v>1953</v>
       </c>
       <c r="C29">
-        <v>1903</v>
+        <v>2005</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>176</v>
-      </c>
-      <c r="M29" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B30">
-        <v>1883</v>
+        <v>1953</v>
       </c>
       <c r="C30">
-        <v>1903</v>
+        <v>2005</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
       </c>
       <c r="J30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="B31">
-        <v>1862</v>
-      </c>
-      <c r="C31">
-        <v>1876</v>
+        <v>1975</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2847,359 +3151,193 @@
         <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>210</v>
+        <v>181</v>
+      </c>
+      <c r="I31" t="s">
+        <v>188</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s">
         <v>175</v>
       </c>
-      <c r="M31" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="B32">
-        <v>1862</v>
-      </c>
-      <c r="C32">
-        <v>1890</v>
+        <v>1975</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="B33">
-        <v>1870</v>
-      </c>
-      <c r="C33">
-        <v>1890</v>
+        <v>1975</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="I33" t="s">
+        <v>192</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B34">
-        <v>1890</v>
-      </c>
-      <c r="C34">
-        <v>1903</v>
-      </c>
-      <c r="D34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" t="s">
-        <v>234</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L34" t="s">
-        <v>178</v>
-      </c>
-      <c r="M34" t="s">
-        <v>223</v>
-      </c>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35">
-        <v>1903</v>
-      </c>
-      <c r="C35">
-        <v>1953</v>
-      </c>
-      <c r="D35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" t="s">
-        <v>183</v>
-      </c>
-      <c r="J35" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="L35" t="s">
-        <v>177</v>
-      </c>
-      <c r="M35" t="s">
-        <v>224</v>
-      </c>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>222</v>
-      </c>
       <c r="B36">
-        <v>1903</v>
-      </c>
-      <c r="C36">
-        <v>1953</v>
+        <v>1847</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G36" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" t="s">
-        <v>183</v>
-      </c>
-      <c r="J36" t="s">
-        <v>234</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="L36" t="s">
-        <v>176</v>
-      </c>
-      <c r="M36" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="B37">
-        <v>1903</v>
-      </c>
-      <c r="C37">
-        <v>1953</v>
+        <v>1975</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
+        <v>195</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" t="s">
-        <v>183</v>
-      </c>
-      <c r="J37" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="L37" t="s">
-        <v>176</v>
-      </c>
-      <c r="M37" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" t="s">
-        <v>241</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>217</v>
-      </c>
-      <c r="H39" t="s">
-        <v>241</v>
-      </c>
-      <c r="J39" t="s">
-        <v>242</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" t="s">
-        <v>168</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>217</v>
-      </c>
-      <c r="H40" t="s">
-        <v>241</v>
-      </c>
-      <c r="J40" t="s">
-        <v>242</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
         <v>162</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3210,10 +3348,13 @@
         <v>1887</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1856</v>
       </c>
@@ -3221,10 +3362,13 @@
         <v>1887</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1881</v>
       </c>
@@ -3232,72 +3376,205 @@
         <v>1930</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B51">
         <v>1943</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="E51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1929</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="E52" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1946</v>
       </c>
+      <c r="B53">
+        <v>1952</v>
+      </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E53" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B54">
-        <v>1963</v>
+        <v>1996</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E54" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1956</v>
       </c>
+      <c r="B55">
+        <v>1998</v>
+      </c>
       <c r="C55" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>255</v>
+        <v>262</v>
+      </c>
+      <c r="E55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1956</v>
+      </c>
+      <c r="B56">
+        <v>2003</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>255</v>
+        <v>265</v>
+      </c>
+      <c r="E56" t="s">
+        <v>277</v>
+      </c>
+      <c r="F56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1964</v>
+      </c>
+      <c r="B57">
+        <v>1989</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>259</v>
+      </c>
+      <c r="E57" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1969</v>
+      </c>
+      <c r="B58">
+        <v>2004</v>
+      </c>
+      <c r="C58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>277</v>
+      </c>
+      <c r="F58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1972</v>
+      </c>
+      <c r="B59">
+        <v>2012</v>
+      </c>
+      <c r="C59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" t="s">
+        <v>277</v>
+      </c>
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1994</v>
+      </c>
+      <c r="B60">
+        <v>2020</v>
+      </c>
+      <c r="C60" t="s">
+        <v>274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2016</v>
+      </c>
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63">
+        <v>1929</v>
+      </c>
+      <c r="C63" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Way/WayObjects/Rail Signals/Signal Overview.xlsx
+++ b/Way/WayObjects/Rail Signals/Signal Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Way\WayObjects\Rail Signals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D6BA4E-A4B2-4CCD-9AAE-3D80153C1621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0EB0E5-88BF-4B98-AA02-4B966DB87A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="283">
   <si>
     <t>eksempel</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>Langå, Hillerød, Hjørring, Struer</t>
+  </si>
+  <si>
+    <t>Stationsgrænse?</t>
+  </si>
+  <si>
+    <t>End of choose</t>
   </si>
 </sst>
 </file>
@@ -2086,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517288DF-DC8F-4E11-9F1F-0BC1FADFFFC5}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,6 +3316,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" t="s">
+        <v>282</v>
+      </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
